--- a/Template/SkillsGroup.xlsx
+++ b/Template/SkillsGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A9A3D-C94B-4DE8-A784-C06ACDDCCF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471EA5BB-5B16-4262-9CD8-ECA2FF3F4380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="22395" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -771,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
